--- a/data/ew_monthly_returns.xlsx
+++ b/data/ew_monthly_returns.xlsx
@@ -505,40 +505,40 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03110047538573912</v>
+        <v>0.03180744182541329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005585895583078315</v>
+        <v>0.005355350620119381</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06062900431175466</v>
+        <v>-0.06512160819951551</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002860916324289642</v>
+        <v>-0.01277228441972889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01174028806402716</v>
+        <v>0.01922345989443652</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03367024619596515</v>
+        <v>-0.03535882020631242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0345988904339869</v>
+        <v>0.03902649107351208</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03511116943533943</v>
+        <v>0.04119462251022377</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03154967255878849</v>
+        <v>-0.03918396698243087</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05501153733111441</v>
+        <v>0.05621429477997708</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0005616787592463979</v>
+        <v>-0.01204659595294777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03493292286226035</v>
+        <v>0.02177782759725511</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +546,40 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03989710391400347</v>
+        <v>0.03904765019674938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01920791175723302</v>
+        <v>0.02348433199654631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000848452394463628</v>
+        <v>0.001563359601745695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02359315382137739</v>
+        <v>0.03117550117658152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04567598712265841</v>
+        <v>0.04487370735481822</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02238564152880151</v>
+        <v>0.02249720703112734</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02409353957127425</v>
+        <v>0.02652337472232613</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.004494325063026494</v>
+        <v>-0.01019374218305313</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01620336522101029</v>
+        <v>0.0178998221494282</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.004617521189016371</v>
+        <v>-0.006348564328167106</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05555297128527137</v>
+        <v>0.06416910631685879</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008596946318625953</v>
+        <v>0.0102071128654333</v>
       </c>
     </row>
     <row r="4">
@@ -587,40 +587,40 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005426671642037917</v>
+        <v>0.01544510503188801</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003049618532849907</v>
+        <v>0.001446300931650324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02103011871386418</v>
+        <v>0.02975207832387516</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01343295236257513</v>
+        <v>3.514296276119211e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03165663133104957</v>
+        <v>0.02633010862137031</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004213829017851722</v>
+        <v>0.001975016749391934</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04863022311181431</v>
+        <v>-0.04439859919322131</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02135745870842842</v>
+        <v>0.03842429761183364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03766964819849572</v>
+        <v>0.04482356968407664</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03377672331830839</v>
+        <v>0.04478916796531851</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04950725346871931</v>
+        <v>0.05254991909349882</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0404475196024745</v>
+        <v>-0.0387144282776487</v>
       </c>
     </row>
     <row r="5">
@@ -628,40 +628,40 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02070583337102749</v>
+        <v>0.01230721773125976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02989015041079535</v>
+        <v>0.03081419224346482</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.009709705640526867</v>
+        <v>-0.003223664690026884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05680622473545416</v>
+        <v>0.04909287791573869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04910933917239246</v>
+        <v>0.04501464545662248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04176631689862842</v>
+        <v>0.04033096285322357</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09355982605034585</v>
+        <v>0.09588619098750772</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03736383696057277</v>
+        <v>-0.03547111256230184</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03593899932113809</v>
+        <v>0.06855534335390634</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04214426329882848</v>
+        <v>-0.03697588378192018</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02635688506941447</v>
+        <v>0.05478649216149711</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03072146085848593</v>
+        <v>-0.009947541266680071</v>
       </c>
     </row>
     <row r="6">
@@ -669,40 +669,40 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02128214868904355</v>
+        <v>0.04720799480268001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07301999345996113</v>
+        <v>0.08827058199827498</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07141045894214959</v>
+        <v>0.06784114327332258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03309688261262944</v>
+        <v>0.04099338457371027</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02479622845225715</v>
+        <v>-0.02445130618507652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03239116396298192</v>
+        <v>0.0354572405839042</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001777607959058458</v>
+        <v>0.007049264714828807</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1039485704256775</v>
+        <v>-0.1092251253179972</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0212055948557347</v>
+        <v>0.0256487073579994</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1304658008484321</v>
+        <v>0.09666022313163447</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05496925084066895</v>
+        <v>0.07128779562638776</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06821020405234379</v>
+        <v>0.07269831537522009</v>
       </c>
     </row>
     <row r="7">
@@ -710,40 +710,40 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02121684895075693</v>
+        <v>0.01081511027428572</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.007520871834421294</v>
+        <v>-0.0203857283641169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03696292399542811</v>
+        <v>0.02894170944996421</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05038606271705626</v>
+        <v>0.05918623085251395</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06579449656878444</v>
+        <v>-0.04602003148485478</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05026298413744001</v>
+        <v>0.05491192060486161</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02058299180811496</v>
+        <v>-0.02918307365891382</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02113188021083001</v>
+        <v>0.02127865758970393</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.03431753157262496</v>
+        <v>-0.02754861059855662</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0969606936906704</v>
+        <v>0.09508100965486976</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02754989090168336</v>
+        <v>0.0165324011372705</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06861939783588844</v>
+        <v>0.07972341101871327</v>
       </c>
     </row>
     <row r="8">
@@ -751,40 +751,40 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.03265263155805087</v>
+        <v>-0.05089354267030299</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0473732156226645</v>
+        <v>-0.03248301782481711</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1172657382655871</v>
+        <v>0.1367939862696104</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03226219261457253</v>
+        <v>-0.005481517923762613</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03741312056649504</v>
+        <v>-0.03210522106197133</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001001990237390338</v>
+        <v>0.01350952921810289</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.000375757452691805</v>
+        <v>0.01053029171191988</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00571779933491201</v>
+        <v>0.02083816510923953</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.04487040904253603</v>
+        <v>-0.03894731533418028</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02217115838547912</v>
+        <v>-0.02946914248940535</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05909686354162824</v>
+        <v>-0.05189762106504214</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05659836537499419</v>
+        <v>0.06605963334807741</v>
       </c>
     </row>
     <row r="9">
@@ -792,40 +792,40 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0662716196215889</v>
+        <v>0.04495017871266849</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04234742965480043</v>
+        <v>-0.04007617331127733</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00310895816660639</v>
+        <v>-0.009942931507864738</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0741380668971674</v>
+        <v>0.06208594272278245</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01940073708264001</v>
+        <v>-0.005433714454588401</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02731460489587079</v>
+        <v>-0.01997415822573367</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0285183595709152</v>
+        <v>-0.01403225430398614</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04473623381263259</v>
+        <v>-0.0460344950038839</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0944479897114695</v>
+        <v>-0.08536129310475282</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02847959379388754</v>
+        <v>0.02359585529345898</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06755724825421616</v>
+        <v>0.0946444838322742</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03156704204883831</v>
+        <v>0.02031223249960235</v>
       </c>
     </row>
     <row r="10">
@@ -833,40 +833,40 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.007651641851374569</v>
+        <v>0.003285749113464576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007783115559114151</v>
+        <v>-0.0001205555649745893</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02606599170765</v>
+        <v>0.04826711091403824</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03572018522977061</v>
+        <v>-0.03551458450705114</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01314912492355924</v>
+        <v>-0.005213355925526297</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05251276488709666</v>
+        <v>-0.07744161882620737</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05083370164960088</v>
+        <v>-0.07716097478186046</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02156667310454097</v>
+        <v>-0.01286010196532961</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.08055974171036884</v>
+        <v>-0.1197509757076003</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04392332938594867</v>
+        <v>0.08192260013661334</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05986010397896591</v>
+        <v>0.07805953111673358</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.05250390737815713</v>
+        <v>-0.06017616725880381</v>
       </c>
     </row>
     <row r="11">
@@ -874,40 +874,40 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06564655973966815</v>
+        <v>-0.0315553173012455</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.003600911245088989</v>
+        <v>0.01170581157514627</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02218114796497273</v>
+        <v>0.01916337900102505</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07739906745569769</v>
+        <v>0.09149323958680489</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05832221269945514</v>
+        <v>0.05246380734983425</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03018895851976167</v>
+        <v>0.03316084330448676</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02010823260638772</v>
+        <v>0.02371448265906961</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03637495593682849</v>
+        <v>0.02485096185385993</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0407097137772674</v>
+        <v>-0.02729988992825316</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04575541416204376</v>
+        <v>0.07133787147864079</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.02323325716202851</v>
+        <v>-0.01798904750704577</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03117466896620136</v>
+        <v>0.04253968779073469</v>
       </c>
     </row>
     <row r="12">
@@ -915,40 +915,40 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0151825969860131</v>
+        <v>0.01438483824014414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05340311868607972</v>
+        <v>0.05155143484604752</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00148542720441136</v>
+        <v>0.007272226708095353</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03322685597810926</v>
+        <v>-0.03324280212544795</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01316191097668984</v>
+        <v>0.01947063969939089</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02890837863140994</v>
+        <v>0.03267401581528007</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.006346082966441791</v>
+        <v>-0.01524627467369633</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02181014563027972</v>
+        <v>0.02223753143308826</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02864669587731306</v>
+        <v>0.03219848633856492</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02781572593630965</v>
+        <v>0.03540995400703695</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04602121252877156</v>
+        <v>0.04519796618458272</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01030961702260313</v>
+        <v>0.02414200504716768</v>
       </c>
     </row>
     <row r="13">
@@ -956,40 +956,40 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006711319046176722</v>
+        <v>0.001863513296033625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03452118442816898</v>
+        <v>0.04315252402346581</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02632166748288112</v>
+        <v>-0.020985170772993</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009076319489570328</v>
+        <v>-0.01813992049039403</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01214821270894073</v>
+        <v>0.01895636931978584</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02259872791766471</v>
+        <v>-0.01160980293234759</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03940552905732408</v>
+        <v>0.04297653528268564</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01667253109785183</v>
+        <v>-0.01754413186534087</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01446990924080227</v>
+        <v>0.01613898697440819</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001784687015157771</v>
+        <v>-0.005234381559118262</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04722399271061861</v>
+        <v>0.04447893157956928</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001934792778058969</v>
+        <v>0.008966824835860976</v>
       </c>
     </row>
     <row r="14">
@@ -997,40 +997,40 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02026030540389145</v>
+        <v>0.03428413255224161</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01138650379964923</v>
+        <v>-0.01152664173142626</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01220524695578473</v>
+        <v>0.01566819347670889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007595486760773262</v>
+        <v>0.008956208854035808</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02264901999919577</v>
+        <v>-0.02430462561077718</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01909160285876987</v>
+        <v>-0.00784046309621389</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02523024479190039</v>
+        <v>0.0307903216598453</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0239749144395347</v>
+        <v>0.01502898835524591</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04144334117383841</v>
+        <v>0.04638746011973627</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03918042015958512</v>
+        <v>0.03520268598746212</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03337970394417633</v>
+        <v>0.02764394307834972</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02105810647542561</v>
+        <v>0.02189068319088738</v>
       </c>
     </row>
     <row r="15">
@@ -1038,40 +1038,40 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02293501947143817</v>
+        <v>0.02894069296569102</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004575126233006488</v>
+        <v>0.0005299919357806271</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001730500062197993</v>
+        <v>-0.00209337078223748</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03927664316350432</v>
+        <v>0.04539853668244831</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03471433114059019</v>
+        <v>0.03803632646378219</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02277252603469326</v>
+        <v>-0.02053329017786731</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.02311541575918374</v>
+        <v>-0.01588498876739897</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001360382626773182</v>
+        <v>0.01280866244811807</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01015113102171772</v>
+        <v>0.01820454520131376</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01519173157609699</v>
+        <v>0.03378082143299577</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00451473505350819</v>
+        <v>-0.02406357819923721</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.001097537808398386</v>
+        <v>-0.008480079503963678</v>
       </c>
     </row>
     <row r="16">
@@ -1079,40 +1079,40 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01803987764556292</v>
+        <v>-0.0365410150343658</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06374067424654006</v>
+        <v>-0.05274479907716867</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04262506134923849</v>
+        <v>0.04657845300695485</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009058034146509408</v>
+        <v>0.04938677276917991</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02761643351792353</v>
+        <v>-0.009421782590904648</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.08948883944052588</v>
+        <v>-0.1003062216846606</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02330427714965677</v>
+        <v>0.0340420407257318</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03432677070513157</v>
+        <v>0.02766711152494783</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.04630782710517578</v>
+        <v>-0.04104038245391395</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1275273459156366</v>
+        <v>-0.1293350146203951</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02195975504842318</v>
+        <v>-0.04050555428929525</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09141464213787098</v>
+        <v>-0.004495797298643689</v>
       </c>
     </row>
     <row r="17">
@@ -1120,40 +1120,40 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1271451022664525</v>
+        <v>-0.09929889147296322</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09219639337325525</v>
+        <v>-0.1020644198880257</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1819279161682592</v>
+        <v>0.1225921763425595</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1029337444331742</v>
+        <v>0.125928693991205</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02463842508693026</v>
+        <v>0.02670779787099908</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.04473624243589769</v>
+        <v>-0.02136260990258021</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07499957505851373</v>
+        <v>0.07888961111751946</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0178683882809012</v>
+        <v>0.03473502801089179</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04230710510335767</v>
+        <v>0.02220686574359276</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.008124798891549934</v>
+        <v>-0.02787847547468869</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07090935322752734</v>
+        <v>0.077880703630413</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0009495627393841799</v>
+        <v>0.01217527427518639</v>
       </c>
     </row>
     <row r="18">
@@ -1161,40 +1161,40 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.04635125983544697</v>
+        <v>-0.03625439122583185</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01635913953313173</v>
+        <v>0.02872119084876479</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0696839449044202</v>
+        <v>0.07817883885386578</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03956074097286311</v>
+        <v>0.0465145694102107</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.08236036814657788</v>
+        <v>-0.06809489776568978</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.06326361023564964</v>
+        <v>-0.07257876473144531</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08022734078547589</v>
+        <v>0.07488587220880794</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.05457195988723273</v>
+        <v>-0.03068283240260161</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04295111149348796</v>
+        <v>0.07131651033699327</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01064073937083609</v>
+        <v>0.01522963864604332</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003399220514056278</v>
+        <v>0.001324459927623423</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06049659003464192</v>
+        <v>0.08361333300648344</v>
       </c>
     </row>
     <row r="19">
@@ -1202,40 +1202,40 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04841436605654459</v>
+        <v>0.06351045158637603</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01136310841885813</v>
+        <v>0.03103848978272339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01521879922515978</v>
+        <v>-0.003862628260124068</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004371221760191668</v>
+        <v>0.01074870484769663</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007253586273779922</v>
+        <v>-0.009011001146958186</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005010971965075717</v>
+        <v>-0.02663837058536189</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.02834296579582407</v>
+        <v>-0.01366935186715978</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.03739007471514644</v>
+        <v>-0.04126574109951464</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.04684951972364659</v>
+        <v>-0.05965392274447856</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1232544815291872</v>
+        <v>0.09597015261941322</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02682885800799495</v>
+        <v>0.001371869885383292</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07643169090191981</v>
+        <v>0.07420529040221835</v>
       </c>
     </row>
     <row r="20">
@@ -1243,40 +1243,40 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03169072876584211</v>
+        <v>0.04670502912729102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04458132989572561</v>
+        <v>0.04880034156163737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05081848872877104</v>
+        <v>0.05802338409054686</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008343092483284686</v>
+        <v>-0.001845044277595353</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01472073571739707</v>
+        <v>-0.01011840432507893</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09289552687254132</v>
+        <v>0.06547250951100292</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02209684165719072</v>
+        <v>0.02306780040577805</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0369231391273428</v>
+        <v>0.03150351414424168</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04951183798574088</v>
+        <v>0.05208975212110634</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01291742905578797</v>
+        <v>-0.01223364626503498</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0006570614788730111</v>
+        <v>0.006136746367014778</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.00242591183112939</v>
+        <v>-0.007652389695146034</v>
       </c>
     </row>
     <row r="21">
@@ -1284,40 +1284,40 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02131716979514842</v>
+        <v>0.04457380589104742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003898680003208366</v>
+        <v>0.01195482858875585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02790223835381545</v>
+        <v>0.03052141420406551</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0277093065178402</v>
+        <v>0.024983716703606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02464036117117607</v>
+        <v>0.01502790293982881</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.03028607729899591</v>
+        <v>-0.02458403820033317</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04238442466962633</v>
+        <v>0.04641887084470975</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04430317249016469</v>
+        <v>-0.03833549679699488</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0206844902324006</v>
+        <v>0.01866091563644634</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03896565604683411</v>
+        <v>0.04672838449161532</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02721729738473178</v>
+        <v>0.0327670633767303</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03679755951493524</v>
+        <v>0.03187696291736009</v>
       </c>
     </row>
     <row r="22">
@@ -1325,40 +1325,40 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.03225512368961103</v>
+        <v>-0.03972810571074814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07352998766046182</v>
+        <v>0.04968657443155511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01939819822727218</v>
+        <v>0.01108392211870779</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0164544447381807</v>
+        <v>0.02109471920211403</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01708528050601466</v>
+        <v>0.01669302758497082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02197077554745364</v>
+        <v>0.02037429886592812</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02057189256555647</v>
+        <v>-0.0183373678668699</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06352351542719004</v>
+        <v>0.05899374099094268</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01240706970477978</v>
+        <v>-0.01434853255530633</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04758729217598345</v>
+        <v>0.03779057217526649</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03939457944227942</v>
+        <v>0.04043493648286534</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01863268189339373</v>
+        <v>0.01388177230470844</v>
       </c>
     </row>
     <row r="23">
@@ -1366,40 +1366,40 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01054463594386257</v>
+        <v>-0.01104463329583971</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04238133279097633</v>
+        <v>0.05033479273672881</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01946947883396877</v>
+        <v>-0.01423637820189749</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002784210159364919</v>
+        <v>-0.0008731444576369762</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01093234723953818</v>
+        <v>0.02629023874531278</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01273177276776127</v>
+        <v>-0.009957394379602746</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0005861513394771478</v>
+        <v>0.01039614994529292</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06381431490886413</v>
+        <v>-0.06499345270276924</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01345463536890312</v>
+        <v>-0.01706095914132022</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0667088993478353</v>
+        <v>0.07088944211377401</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01167972227103542</v>
+        <v>0.02706159429435706</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02826256034197117</v>
+        <v>-0.01843667692938988</v>
       </c>
     </row>
     <row r="24">
@@ -1407,40 +1407,40 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0293864984945339</v>
+        <v>-0.03970065907457643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008828963849289995</v>
+        <v>-0.001203425710042838</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04805571740538106</v>
+        <v>0.07101888909644938</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0002769288696203853</v>
+        <v>0.006192309580783872</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005173373993627273</v>
+        <v>0.01345299251082555</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01110846660891784</v>
+        <v>0.008567727442128081</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0243346994368292</v>
+        <v>0.02651742422389813</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01425162994704365</v>
+        <v>-0.01532413042280545</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.002031751296711404</v>
+        <v>-0.0006709246002069014</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.02476350605911282</v>
+        <v>-0.02688425586621834</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04192299554325363</v>
+        <v>0.03058516534200018</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0372889499703708</v>
+        <v>0.03592967644218059</v>
       </c>
     </row>
     <row r="25">
@@ -1448,40 +1448,40 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01211248007534271</v>
+        <v>0.01920775069976766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04513570758562158</v>
+        <v>0.04994074096414547</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002179152671343831</v>
+        <v>0.01066087403499516</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01777603612994527</v>
+        <v>0.0165355981588724</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00442028990562171</v>
+        <v>-0.005781141592760997</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003072969340318643</v>
+        <v>0.00984716048369072</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.001975687629233502</v>
+        <v>0.004573300044536266</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.00772950018470786</v>
+        <v>-0.00437811075062855</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02120624451823061</v>
+        <v>0.02366364160012191</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02238926512974393</v>
+        <v>0.02772564669742161</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02861957586699848</v>
+        <v>0.02933983209392044</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01003296443063739</v>
+        <v>0.008275731642133577</v>
       </c>
     </row>
     <row r="26">
@@ -1489,40 +1489,40 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01380082383906434</v>
+        <v>0.02344148959368697</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.05993507487506888</v>
+        <v>-0.05983112781590272</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.004678435484819499</v>
+        <v>-0.01374883381696901</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03319537080287116</v>
+        <v>0.01225978937850858</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02395412649778983</v>
+        <v>0.02155928621239211</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01051403267193884</v>
+        <v>0.01566500609630905</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04247460872404707</v>
+        <v>0.04091981048078153</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03435484123513133</v>
+        <v>0.03429317615587268</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.006066948002855455</v>
+        <v>-0.007969994462215135</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.06100086172451402</v>
+        <v>-0.05432559720863761</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01775269370261545</v>
+        <v>-0.01417978798604302</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0839743441034585</v>
+        <v>-0.07399995264565717</v>
       </c>
     </row>
     <row r="27">
@@ -1530,40 +1530,40 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08395225050077681</v>
+        <v>0.09017301793287946</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03017314243904456</v>
+        <v>0.03340035029535726</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01230702323024291</v>
+        <v>0.01640506561486976</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04125372879588673</v>
+        <v>0.05036744427411044</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.05973071101826044</v>
+        <v>-0.06420698967059568</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07453791008424959</v>
+        <v>0.08052432468202819</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01139599291747895</v>
+        <v>0.02024850305638393</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0002148224386684383</v>
+        <v>-0.01003868433440025</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03912883542338452</v>
+        <v>0.03966043532055763</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04781216339030969</v>
+        <v>0.03519608978165922</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02517397198373361</v>
+        <v>0.04159261909842948</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03668043588573799</v>
+        <v>0.02933357652021629</v>
       </c>
     </row>
     <row r="28">
@@ -1571,40 +1571,40 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.002920385114050905</v>
+        <v>0.005703561378732402</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1005600032392679</v>
+        <v>-0.09951164619140762</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1788416178253379</v>
+        <v>-0.1346004425910365</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1651787706934671</v>
+        <v>0.1099900031983057</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07946452621003064</v>
+        <v>0.03976698950613877</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005931656529418072</v>
+        <v>0.01571109488373468</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06340625171978576</v>
+        <v>0.06042608784467829</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05736457616212687</v>
+        <v>0.06034780156018105</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0449784608214967</v>
+        <v>-0.03626266119861066</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.006947809473622057</v>
+        <v>-0.00736058975614895</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1186188538066242</v>
+        <v>0.1376238149818034</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06776089650823947</v>
+        <v>0.07465532497503702</v>
       </c>
     </row>
     <row r="29">
@@ -1612,40 +1612,40 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03039244322954748</v>
+        <v>0.01499998815723025</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03503461700300115</v>
+        <v>0.04078153991423727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.009393761957206426</v>
+        <v>0.03757466228317807</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02609181618456846</v>
+        <v>0.03830225337472459</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001536558209823902</v>
+        <v>0.01337360367306406</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005153769462743041</v>
+        <v>0.008527468655016746</v>
       </c>
       <c r="H29" t="n">
-        <v>0.007731335833492725</v>
+        <v>0.01224848428647318</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03668819331497186</v>
+        <v>0.0365169919585171</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.03301733434920251</v>
+        <v>-0.03260153844121216</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05546222925616373</v>
+        <v>0.06911299054992681</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01346831830908157</v>
+        <v>-0.01259694716696313</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05825006536875188</v>
+        <v>0.05307542608908666</v>
       </c>
     </row>
     <row r="30">
@@ -1653,40 +1653,40 @@
         <v>2022</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.05133347122363041</v>
+        <v>-0.04873433942201144</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0358694638808591</v>
+        <v>-0.02112111818636464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02631424075390987</v>
+        <v>0.0154735961815986</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.05126788231927581</v>
+        <v>-0.04324583474177768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01551975690040797</v>
+        <v>0.01512378543638304</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09060750899540726</v>
+        <v>-0.09788626327647132</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08006874964359856</v>
+        <v>0.1006192402648078</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01936927017160983</v>
+        <v>-0.01784809276569466</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.09232574740770716</v>
+        <v>-0.08635801287805478</v>
       </c>
       <c r="K30" t="n">
-        <v>0.09839752631828591</v>
+        <v>0.1310110236528459</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05483488708348161</v>
+        <v>0.05149226055567779</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0462309487545981</v>
+        <v>-0.04644303067917521</v>
       </c>
     </row>
     <row r="31">
@@ -1694,40 +1694,40 @@
         <v>2023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06219622100912181</v>
+        <v>0.06134072114685152</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04209702441508112</v>
+        <v>-0.03536871853848023</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04084487083375477</v>
+        <v>0.03439992719427587</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03246997825359421</v>
+        <v>0.0431683899466071</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02965106461948619</v>
+        <v>-0.0289699736662129</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0698653699045213</v>
+        <v>0.0839574671643788</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02379888014617504</v>
+        <v>0.02265473591190625</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001904304078155672</v>
+        <v>-0.001760715233317667</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.04813771953140511</v>
+        <v>-0.04591506408238444</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.01025674361935547</v>
+        <v>-0.02404445445480796</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07877984441196673</v>
+        <v>0.08067081805166687</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03794092925143167</v>
+        <v>0.04330419535772512</v>
       </c>
     </row>
   </sheetData>

--- a/data/ew_monthly_returns.xlsx
+++ b/data/ew_monthly_returns.xlsx
@@ -505,40 +505,40 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03180744182541329</v>
+        <v>0.03180731961027883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005355350620119381</v>
+        <v>0.00535544500737517</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06512160819951551</v>
+        <v>-0.06512184911473362</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01277228441972889</v>
+        <v>-0.01277197574241917</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01922345989443652</v>
+        <v>0.01922327223621401</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.03535882020631242</v>
+        <v>-0.03535886281096667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03902649107351208</v>
+        <v>0.03902650451965828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04119462251022377</v>
+        <v>0.04119468784803404</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03918396698243087</v>
+        <v>-0.03918419257976757</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05621429477997708</v>
+        <v>0.05621447218126185</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01204659595294777</v>
+        <v>-0.01204670610982206</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02177782759725511</v>
+        <v>0.0217779724181546</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +546,40 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03904765019674938</v>
+        <v>0.03904770111545153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02348433199654631</v>
+        <v>0.02348416935249631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001563359601745695</v>
+        <v>0.001563524977393538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03117550117658152</v>
+        <v>0.03117528393169477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04487370735481822</v>
+        <v>0.04487417901885538</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02249720703112734</v>
+        <v>0.02249705622990605</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02652337472232613</v>
+        <v>0.02652339781210933</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01019374218305313</v>
+        <v>-0.01019407511590464</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0178998221494282</v>
+        <v>0.01789991915986189</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.006348564328167106</v>
+        <v>-0.006348558800742587</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06416910631685879</v>
+        <v>0.06416928687560408</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0102071128654333</v>
+        <v>0.01020694317880855</v>
       </c>
     </row>
     <row r="4">
@@ -587,40 +587,40 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01544510503188801</v>
+        <v>0.01544529754211577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001446300931650324</v>
+        <v>0.001445974686741902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02975207832387516</v>
+        <v>0.02975251570184945</v>
       </c>
       <c r="E4" t="n">
-        <v>3.514296276119211e-05</v>
+        <v>3.490335651235021e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02633010862137031</v>
+        <v>0.02633018829874811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001975016749391934</v>
+        <v>0.001974857668775698</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04439859919322131</v>
+        <v>-0.04439852003598532</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03842429761183364</v>
+        <v>0.03842454016569308</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04482356968407664</v>
+        <v>0.04482332732775385</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04478916796531851</v>
+        <v>0.04478915516759163</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05254991909349882</v>
+        <v>0.0525499535054974</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0387144282776487</v>
+        <v>-0.03871449662060666</v>
       </c>
     </row>
     <row r="5">
@@ -628,40 +628,40 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01230721773125976</v>
+        <v>0.01230721684439384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03081419224346482</v>
+        <v>0.0308142116514607</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.003223664690026884</v>
+        <v>-0.003223649594771616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04909287791573869</v>
+        <v>0.04909298201594448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04501464545662248</v>
+        <v>0.04501454690387496</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04033096285322357</v>
+        <v>0.04033106412705578</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09588619098750772</v>
+        <v>0.09588618347106692</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03547111256230184</v>
+        <v>-0.03547126330707151</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06855534335390634</v>
+        <v>0.06855528199076533</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03697588378192018</v>
+        <v>-0.03697574682509286</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05478649216149711</v>
+        <v>0.05478642500757469</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.009947541266680071</v>
+        <v>-0.009947270626550764</v>
       </c>
     </row>
     <row r="6">
@@ -669,40 +669,40 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04720799480268001</v>
+        <v>0.04720773357304209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08827058199827498</v>
+        <v>0.08827048992173703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06784114327332258</v>
+        <v>0.06784144770528955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04099338457371027</v>
+        <v>0.04099322201104805</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02445130618507652</v>
+        <v>-0.02445134873663102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0354572405839042</v>
+        <v>0.0354571274429889</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007049264714828807</v>
+        <v>0.007049344619664222</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1092251253179972</v>
+        <v>-0.1092249964074509</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0256487073579994</v>
+        <v>0.02564857451160796</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09666022313163447</v>
+        <v>0.09666020035429446</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07128779562638776</v>
+        <v>0.07128797007552179</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07269831537522009</v>
+        <v>0.07269831843041508</v>
       </c>
     </row>
     <row r="7">
@@ -710,40 +710,40 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01081511027428572</v>
+        <v>0.01081501998647316</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0203857283641169</v>
+        <v>-0.02038568404039187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02894170944996421</v>
+        <v>0.02894153152499879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05918623085251395</v>
+        <v>0.05918639358572308</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04602003148485478</v>
+        <v>-0.04602003031405921</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05491192060486161</v>
+        <v>0.0549118107108455</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.02918307365891382</v>
+        <v>-0.02918283929969856</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02127865758970393</v>
+        <v>0.02127836535601557</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02754861059855662</v>
+        <v>-0.02754857548738288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09508100965486976</v>
+        <v>0.09508109927654984</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0165324011372705</v>
+        <v>0.01653243868005627</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07972341101871327</v>
+        <v>0.07972303696384175</v>
       </c>
     </row>
     <row r="8">
@@ -751,40 +751,40 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05089354267030299</v>
+        <v>-0.05089318659236841</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03248301782481711</v>
+        <v>-0.03248313770979838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1367939862696104</v>
+        <v>0.1367941953717882</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.005481517923762613</v>
+        <v>-0.005481647711874427</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03210522106197133</v>
+        <v>-0.03210541499097941</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01350952921810289</v>
+        <v>0.01350963859840792</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01053029171191988</v>
+        <v>0.0105303229665008</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02083816510923953</v>
+        <v>0.02083825757271129</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03894731533418028</v>
+        <v>-0.03894713869766053</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02946914248940535</v>
+        <v>-0.02946917158982931</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05189762106504214</v>
+        <v>-0.05189785592153884</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06605963334807741</v>
+        <v>0.06605963021265504</v>
       </c>
     </row>
     <row r="9">
@@ -792,40 +792,40 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04495017871266849</v>
+        <v>0.04495017646318544</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04007617331127733</v>
+        <v>-0.04007594389302294</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009942931507864738</v>
+        <v>-0.009943151874160949</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06208594272278245</v>
+        <v>0.06208605172407888</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005433714454588401</v>
+        <v>-0.005433772904344769</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01997415822573367</v>
+        <v>-0.01997413943908299</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01403225430398614</v>
+        <v>-0.01403210988778769</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0460344950038839</v>
+        <v>-0.0460345304670402</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.08536129310475282</v>
+        <v>-0.08536143732783552</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02359585529345898</v>
+        <v>0.02359570283190804</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0946444838322742</v>
+        <v>0.09464452865216422</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02031223249960235</v>
+        <v>0.02031256708425344</v>
       </c>
     </row>
     <row r="10">
@@ -833,40 +833,40 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003285749113464576</v>
+        <v>0.003285559822105766</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0001205555649745893</v>
+        <v>-0.0001206058440287316</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04826711091403824</v>
+        <v>0.04826714096394547</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.03551458450705114</v>
+        <v>-0.03551445373829309</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.005213355925526297</v>
+        <v>-0.005213268699673312</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07744161882620737</v>
+        <v>-0.07744170316683596</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07716097478186046</v>
+        <v>-0.07716121815796406</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01286010196532961</v>
+        <v>-0.01285977087458967</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1197509757076003</v>
+        <v>-0.119750833238692</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08192260013661334</v>
+        <v>0.0819221111828905</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07805953111673358</v>
+        <v>0.07805982949213153</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.06017616725880381</v>
+        <v>-0.06017630300317678</v>
       </c>
     </row>
     <row r="11">
@@ -874,40 +874,40 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0315553173012455</v>
+        <v>-0.03155519376063187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01170581157514627</v>
+        <v>0.01170573207211589</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01916337900102505</v>
+        <v>0.01916316521741512</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09149323958680489</v>
+        <v>0.0914933872744883</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05246380734983425</v>
+        <v>0.05246382961613727</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03316084330448676</v>
+        <v>0.03316095385139284</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02371448265906961</v>
+        <v>0.02371447432767693</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02485096185385993</v>
+        <v>0.02485083945189093</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02729988992825316</v>
+        <v>-0.02729982102667994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07133787147864079</v>
+        <v>0.07133774941956328</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.01798904750704577</v>
+        <v>-0.01798908759456541</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04253968779073469</v>
+        <v>0.042539763871285</v>
       </c>
     </row>
     <row r="12">
@@ -915,40 +915,40 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01438483824014414</v>
+        <v>0.01438497899891744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05155143484604752</v>
+        <v>0.05155143288370723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007272226708095353</v>
+        <v>0.007272082979973504</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03324280212544795</v>
+        <v>-0.03324269667285129</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01947063969939089</v>
+        <v>0.01947057710256805</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03267401581528007</v>
+        <v>0.03267407806505296</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01524627467369633</v>
+        <v>-0.01524622286415023</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02223753143308826</v>
+        <v>0.02223748237443468</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03219848633856492</v>
+        <v>0.03219839947388037</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03540995400703695</v>
+        <v>0.03540998633657999</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04519796618458272</v>
+        <v>0.04519808191855068</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02414200504716768</v>
+        <v>0.02414201296721141</v>
       </c>
     </row>
     <row r="13">
@@ -956,40 +956,40 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001863513296033625</v>
+        <v>0.001863502065263534</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04315252402346581</v>
+        <v>0.0431525765422518</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.020985170772993</v>
+        <v>-0.02098505657885463</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01813992049039403</v>
+        <v>-0.01814006692589931</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01895636931978584</v>
+        <v>0.0189564089954426</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01160980293234759</v>
+        <v>-0.01160984158687672</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04297653528268564</v>
+        <v>0.04297631167623583</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01754413186534087</v>
+        <v>-0.01754397603374569</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01613898697440819</v>
+        <v>0.01613908384054485</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.005234381559118262</v>
+        <v>-0.00523435930796734</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04447893157956928</v>
+        <v>0.04447873008451086</v>
       </c>
       <c r="M13" t="n">
-        <v>0.008966824835860976</v>
+        <v>0.008966946622307237</v>
       </c>
     </row>
     <row r="14">
@@ -997,40 +997,40 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03428413255224161</v>
+        <v>0.03428424079331949</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01152664173142626</v>
+        <v>-0.01152668361527054</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01566819347670889</v>
+        <v>0.01566817268431375</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008956208854035808</v>
+        <v>0.008956236464102263</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02430462561077718</v>
+        <v>-0.02430472248541449</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00784046309621389</v>
+        <v>-0.007840510664949618</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0307903216598453</v>
+        <v>0.03079043741099818</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01502898835524591</v>
+        <v>0.01502899269214852</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04638746011973627</v>
+        <v>0.04638749435962208</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03520268598746212</v>
+        <v>0.03520270784971924</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02764394307834972</v>
+        <v>0.02764380427106672</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02189068319088738</v>
+        <v>0.02189052320435581</v>
       </c>
     </row>
     <row r="15">
@@ -1038,40 +1038,40 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02894069296569102</v>
+        <v>0.02894101545478511</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005299919357806271</v>
+        <v>0.0005298851732447041</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00209337078223748</v>
+        <v>-0.002093497797552302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04539853668244831</v>
+        <v>0.0453987721328637</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03803632646378219</v>
+        <v>0.03803627414236632</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02053329017786731</v>
+        <v>-0.02053315452265603</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01588498876739897</v>
+        <v>-0.01588512204545178</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01280866244811807</v>
+        <v>0.01280860515954396</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01820454520131376</v>
+        <v>0.01820460861899398</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03378082143299577</v>
+        <v>0.03378085129015629</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.02406357819923721</v>
+        <v>-0.02406355725978238</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.008480079503963678</v>
+        <v>-0.008480297226068689</v>
       </c>
     </row>
     <row r="16">
@@ -1079,40 +1079,40 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0365410150343658</v>
+        <v>-0.03654096458861744</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05274479907716867</v>
+        <v>-0.05274474685267017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04657845300695485</v>
+        <v>0.04657849293175431</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04938677276917991</v>
+        <v>0.04938668528643442</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009421782590904648</v>
+        <v>-0.00942174011971153</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1003062216846606</v>
+        <v>-0.1003062274585704</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0340420407257318</v>
+        <v>0.03404199354416249</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02766711152494783</v>
+        <v>0.02766707684375658</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.04104038245391395</v>
+        <v>-0.0410403346069883</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1293350146203951</v>
+        <v>-0.1293350455885018</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04050555428929525</v>
+        <v>-0.04050544587528504</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.004495797298643689</v>
+        <v>-0.00449571749579869</v>
       </c>
     </row>
     <row r="17">
@@ -1120,40 +1120,40 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09929889147296322</v>
+        <v>-0.0992989342104148</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1020644198880257</v>
+        <v>-0.1020645989266096</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1225921763425595</v>
+        <v>0.1225922793179566</v>
       </c>
       <c r="E17" t="n">
-        <v>0.125928693991205</v>
+        <v>0.1259287679448491</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02670779787099908</v>
+        <v>0.02670776640326422</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02136260990258021</v>
+        <v>-0.02136266002802911</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07888961111751946</v>
+        <v>0.07888965909505186</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03473502801089179</v>
+        <v>0.03473506675837412</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02220686574359276</v>
+        <v>0.02220684738337675</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02787847547468869</v>
+        <v>-0.02787842313062494</v>
       </c>
       <c r="L17" t="n">
-        <v>0.077880703630413</v>
+        <v>0.07788060780705131</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01217527427518639</v>
+        <v>0.01217527551090014</v>
       </c>
     </row>
     <row r="18">
@@ -1161,40 +1161,40 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.03625439122583185</v>
+        <v>-0.03625430936287499</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02872119084876479</v>
+        <v>0.02872107178171146</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07817883885386578</v>
+        <v>0.07817888752733637</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0465145694102107</v>
+        <v>0.04651472101411791</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.06809489776568978</v>
+        <v>-0.06809497879920734</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07257876473144531</v>
+        <v>-0.07257882067459454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07488587220880794</v>
+        <v>0.07488595816286492</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.03068283240260161</v>
+        <v>-0.03068292798614225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07131651033699327</v>
+        <v>0.07131668945021374</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01522963864604332</v>
+        <v>0.01522946890952559</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001324459927623423</v>
+        <v>0.001324452143261379</v>
       </c>
       <c r="M18" t="n">
-        <v>0.08361333300648344</v>
+        <v>0.08361322836264629</v>
       </c>
     </row>
     <row r="19">
@@ -1202,40 +1202,40 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06351045158637603</v>
+        <v>0.0635106577001745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03103848978272339</v>
+        <v>0.03103825382855674</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.003862628260124068</v>
+        <v>-0.003862358758972007</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01074870484769663</v>
+        <v>0.0107486072463816</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.009011001146958186</v>
+        <v>-0.009011085928696594</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02663837058536189</v>
+        <v>-0.02663832638688324</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01366935186715978</v>
+        <v>-0.01366922599362674</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.04126574109951464</v>
+        <v>-0.04126583800342443</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.05965392274447856</v>
+        <v>-0.05965392621587107</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09597015261941322</v>
+        <v>0.09597013959884082</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001371869885383292</v>
+        <v>0.001371983360114015</v>
       </c>
       <c r="M19" t="n">
-        <v>0.07420529040221835</v>
+        <v>0.07420506824330131</v>
       </c>
     </row>
     <row r="20">
@@ -1243,40 +1243,40 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04670502912729102</v>
+        <v>0.04670521792915849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04880034156163737</v>
+        <v>0.04880018460087365</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05802338409054686</v>
+        <v>0.05802351744931045</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001845044277595353</v>
+        <v>-0.001844954126380083</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01011840432507893</v>
+        <v>-0.01011853302327759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06547250951100292</v>
+        <v>0.06547248453762822</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02306780040577805</v>
+        <v>0.02306787192762672</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03150351414424168</v>
+        <v>0.03150334215326889</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05208975212110634</v>
+        <v>0.05208980689177412</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01223364626503498</v>
+        <v>-0.0122335674255698</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006136746367014778</v>
+        <v>0.006136807307483672</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.007652389695146034</v>
+        <v>-0.007652413977422556</v>
       </c>
     </row>
     <row r="21">
@@ -1284,40 +1284,40 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04457380589104742</v>
+        <v>0.04457379940144501</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01195482858875585</v>
+        <v>0.01195473814486148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03052141420406551</v>
+        <v>0.03052151575631212</v>
       </c>
       <c r="E21" t="n">
-        <v>0.024983716703606</v>
+        <v>0.02498373269985299</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01502790293982881</v>
+        <v>0.01502781824535582</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02458403820033317</v>
+        <v>-0.02458403568718748</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04641887084470975</v>
+        <v>0.04641888278590711</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.03833549679699488</v>
+        <v>-0.03833544819654289</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01866091563644634</v>
+        <v>0.01866088784379016</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04672838449161532</v>
+        <v>0.04672841250364868</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0327670633767303</v>
+        <v>0.03276696955483471</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03187696291736009</v>
+        <v>0.03187708189332716</v>
       </c>
     </row>
     <row r="22">
@@ -1325,40 +1325,40 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.03972810571074814</v>
+        <v>-0.03972813050341562</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04968657443155511</v>
+        <v>0.04968663980130117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01108392211870779</v>
+        <v>0.0110837437867235</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02109471920211403</v>
+        <v>0.02109495254597449</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01669302758497082</v>
+        <v>0.01669282653510296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02037429886592812</v>
+        <v>0.02037426520473851</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0183373678668699</v>
+        <v>-0.01833731214953471</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05899374099094268</v>
+        <v>0.05899369771414786</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01434853255530633</v>
+        <v>-0.0143485278746972</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03779057217526649</v>
+        <v>0.03779064823427003</v>
       </c>
       <c r="L22" t="n">
-        <v>0.04043493648286534</v>
+        <v>0.04043484927061591</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01388177230470844</v>
+        <v>0.01388183306194235</v>
       </c>
     </row>
     <row r="23">
@@ -1366,40 +1366,40 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01104463329583971</v>
+        <v>-0.01104458419617604</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05033479273672881</v>
+        <v>0.05033475037360824</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01423637820189749</v>
+        <v>-0.01423638177252018</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0008731444576369762</v>
+        <v>-0.0008731839700406585</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02629023874531278</v>
+        <v>0.02629025371354388</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009957394379602746</v>
+        <v>-0.009957284538874234</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01039614994529292</v>
+        <v>0.01039608078005894</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06499345270276924</v>
+        <v>-0.0649934353221352</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01706095914132022</v>
+        <v>-0.01706084117233064</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07088944211377401</v>
+        <v>0.07088924754274406</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02706159429435706</v>
+        <v>0.02706154457278465</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.01843667692938988</v>
+        <v>-0.01843654467805833</v>
       </c>
     </row>
     <row r="24">
@@ -1407,40 +1407,40 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.03970065907457643</v>
+        <v>-0.03970060882157134</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.001203425710042838</v>
+        <v>-0.001203522894279052</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07101888909644938</v>
+        <v>0.07101892106851837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006192309580783872</v>
+        <v>0.006192287008300212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01345299251082555</v>
+        <v>0.01345301658986164</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008567727442128081</v>
+        <v>0.008567712966098373</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02651742422389813</v>
+        <v>0.0265174590850894</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01532413042280545</v>
+        <v>-0.01532421285874996</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0006709246002069014</v>
+        <v>-0.0006709153812834989</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.02688425586621834</v>
+        <v>-0.02688425246654669</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03058516534200018</v>
+        <v>0.03058506645528425</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03592967644218059</v>
+        <v>0.03592969550218372</v>
       </c>
     </row>
     <row r="25">
@@ -1448,40 +1448,40 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01920775069976766</v>
+        <v>0.01920783098374423</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04994074096414547</v>
+        <v>0.04994077495876925</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01066087403499516</v>
+        <v>0.01066085873292333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0165355981588724</v>
+        <v>0.01653557003646067</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005781141592760997</v>
+        <v>-0.005781109164761156</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00984716048369072</v>
+        <v>0.009847095279503337</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004573300044536266</v>
+        <v>0.00457334098772999</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.00437811075062855</v>
+        <v>-0.004377979694141221</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02366364160012191</v>
+        <v>0.02366356789529167</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02772564669742161</v>
+        <v>0.02772553960045787</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02933983209392044</v>
+        <v>0.0293398866094905</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008275731642133577</v>
+        <v>0.008275694064068473</v>
       </c>
     </row>
     <row r="26">
@@ -1489,40 +1489,40 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02344148959368697</v>
+        <v>0.02344157008792713</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.05983112781590272</v>
+        <v>-0.05983113474395796</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01374883381696901</v>
+        <v>-0.01374881209952594</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01225978937850858</v>
+        <v>0.01225977624391072</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02155928621239211</v>
+        <v>0.02155928599675994</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01566500609630905</v>
+        <v>0.01566505016181696</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04091981048078153</v>
+        <v>0.04091973557513584</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03429317615587268</v>
+        <v>0.03429313804922463</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.007969994462215135</v>
+        <v>-0.007969907450800506</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.05432559720863761</v>
+        <v>-0.05432555476478818</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01417978798604302</v>
+        <v>-0.01417977288887662</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.07399995264565717</v>
+        <v>-0.07400004758992706</v>
       </c>
     </row>
     <row r="27">
@@ -1530,40 +1530,40 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09017301793287946</v>
+        <v>0.09017304259205461</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03340035029535726</v>
+        <v>0.03340035607394021</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01640506561486976</v>
+        <v>0.01640501875866884</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05036744427411044</v>
+        <v>0.05036744109741353</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.06420698967059568</v>
+        <v>-0.06420692389391891</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08052432468202819</v>
+        <v>0.08052431483789557</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02024850305638393</v>
+        <v>0.02024837118011691</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01003868433440025</v>
+        <v>-0.0100386533341108</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03966043532055763</v>
+        <v>0.0396605277928519</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03519608978165922</v>
+        <v>0.03519599716805355</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04159261909842948</v>
+        <v>0.04159262479857606</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02933357652021629</v>
+        <v>0.02933360142003139</v>
       </c>
     </row>
     <row r="28">
@@ -1571,40 +1571,40 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>0.005703561378732402</v>
+        <v>0.005703598682530453</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09951164619140762</v>
+        <v>-0.09951162857487317</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1346004425910365</v>
+        <v>-0.1346004541334135</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1099900031983057</v>
+        <v>0.1099899419903156</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03976698950613877</v>
+        <v>0.03976702052752334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01571109488373468</v>
+        <v>0.01571114353511205</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06042608784467829</v>
+        <v>0.06042605727953321</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06034780156018105</v>
+        <v>0.06034778222836601</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.03626266119861066</v>
+        <v>-0.03626262678062597</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.00736058975614895</v>
+        <v>-0.007360653761914082</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1376238149818034</v>
+        <v>0.1376238871349156</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07465532497503702</v>
+        <v>0.07465534042144695</v>
       </c>
     </row>
     <row r="29">
@@ -1612,40 +1612,40 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01499998815723025</v>
+        <v>0.01499992910313619</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04078153991423727</v>
+        <v>0.04078154416657531</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03757466228317807</v>
+        <v>0.03757467510113344</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03830225337472459</v>
+        <v>0.03830231841531839</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01337360367306406</v>
+        <v>0.01337357272113771</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008527468655016746</v>
+        <v>0.008527466486355495</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01224848428647318</v>
+        <v>0.01224849103582915</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0365169919585171</v>
+        <v>0.03651698780532464</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.03260153844121216</v>
+        <v>-0.03260155688948152</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06911299054992681</v>
+        <v>0.06911299983281127</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01259694716696313</v>
+        <v>-0.01259696616271</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05307542608908666</v>
+        <v>0.05307548128188322</v>
       </c>
     </row>
     <row r="30">
@@ -1653,40 +1653,40 @@
         <v>2022</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.04873433942201144</v>
+        <v>-0.04873442855532872</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02112111818636464</v>
+        <v>-0.02112106387897994</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0154735961815986</v>
+        <v>0.01547355024869335</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.04324583474177768</v>
+        <v>-0.04324580666721367</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01512378543638304</v>
+        <v>0.01512380933848001</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09788626327647132</v>
+        <v>-0.09788624923546396</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1006192402648078</v>
+        <v>0.1006191804004704</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01784809276569466</v>
+        <v>-0.01784807673198607</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.08635801287805478</v>
+        <v>-0.08635798025457642</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1310110236528459</v>
+        <v>0.1310110476375579</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05149226055567779</v>
+        <v>0.0514921956812644</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04644303067917521</v>
+        <v>-0.04644295833905676</v>
       </c>
     </row>
     <row r="31">
@@ -1694,40 +1694,40 @@
         <v>2023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06134072114685152</v>
+        <v>0.06134069297026268</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03536871853848023</v>
+        <v>-0.03536874708367221</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03439992719427587</v>
+        <v>0.03439991785828589</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0431683899466071</v>
+        <v>0.04316842709784696</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0289699736662129</v>
+        <v>-0.02896996476172564</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0839574671643788</v>
+        <v>0.08395744480435297</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02265473591190625</v>
+        <v>0.02265472597354945</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.001760715233317667</v>
+        <v>-0.001760736553560904</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.04591506408238444</v>
+        <v>-0.04591504083685871</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.02404445445480796</v>
+        <v>-0.02404449113995244</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08067081805166687</v>
+        <v>0.08067084396932356</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04330419535772512</v>
+        <v>0.04330419677476449</v>
       </c>
     </row>
   </sheetData>
